--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive_download.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive_download.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F6AAA-5BDD-49FC-B811-B0A7464819C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBA5728-715D-4974-B72D-E1AFB1389A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>KWGNo:</t>
     <phoneticPr fontId="1"/>
@@ -969,6 +969,20 @@
   <si>
     <t xml:space="preserve">
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一個単価</t>
+    <rPh sb="0" eb="2">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stroneproductprice</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1289,53 +1303,53 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1717,7 +1731,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1798,11 +1812,11 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="30"/>
-      <c r="L3" s="56">
+      <c r="L3" s="58">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="31"/>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
@@ -1816,16 +1830,16 @@
     <row r="4" spans="1:22" ht="12.6" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="50"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="51"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="52">
+      <c r="H4" s="61">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="30"/>
       <c r="K4" s="28"/>
       <c r="L4" s="32"/>
@@ -1843,13 +1857,13 @@
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="51"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -1872,18 +1886,18 @@
       <c r="E6" s="29"/>
       <c r="F6" s="33"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="55">
+      <c r="H6" s="65">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="60" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -1901,16 +1915,16 @@
       <c r="E7" s="29"/>
       <c r="F7" s="34"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="52">
+      <c r="H7" s="61">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -1949,16 +1963,16 @@
       <c r="B9" s="28"/>
       <c r="C9" s="45"/>
       <c r="D9" s="36"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
@@ -1979,16 +1993,16 @@
         <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
         <v/>
       </c>
-      <c r="E10" s="53" t="str">
+      <c r="E10" s="57" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="43" t="str">
-        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <f>IF(LEN(データ設定用!T6)&gt;0,データ設定用!T6,"")</f>
         <v/>
       </c>
       <c r="J10" s="44" t="str">
@@ -1999,15 +2013,15 @@
         <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
         <v/>
       </c>
-      <c r="L10" s="44" t="str">
-        <f>IF(LEN(I10)&gt;0,I10,"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="59" t="str">
+      <c r="L10" s="43" t="str">
+        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="54" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="59"/>
+      <c r="N10" s="54"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -2028,16 +2042,16 @@
         <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
         <v/>
       </c>
-      <c r="E11" s="53" t="str">
+      <c r="E11" s="57" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="43" t="str">
-        <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
+        <f>IF(LEN(データ設定用!T7)&gt;0,データ設定用!T7,"")</f>
         <v/>
       </c>
       <c r="J11" s="44" t="str">
@@ -2048,15 +2062,15 @@
         <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
         <v/>
       </c>
-      <c r="L11" s="44" t="str">
-        <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="59" t="str">
+      <c r="L11" s="43" t="str">
+        <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="54" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="59"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
@@ -2077,16 +2091,16 @@
         <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
         <v/>
       </c>
-      <c r="E12" s="53" t="str">
+      <c r="E12" s="57" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="43" t="str">
-        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+        <f>IF(LEN(データ設定用!T8)&gt;0,データ設定用!T8,"")</f>
         <v/>
       </c>
       <c r="J12" s="44" t="str">
@@ -2097,15 +2111,15 @@
         <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
         <v/>
       </c>
-      <c r="L12" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M12" s="59" t="str">
+      <c r="L12" s="43" t="str">
+        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="54" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="59"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -2126,16 +2140,16 @@
         <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
         <v/>
       </c>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="57" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="43" t="str">
-        <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
+        <f>IF(LEN(データ設定用!T9)&gt;0,データ設定用!T9,"")</f>
         <v/>
       </c>
       <c r="J13" s="44" t="str">
@@ -2146,15 +2160,15 @@
         <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
         <v/>
       </c>
-      <c r="L13" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="59" t="str">
+      <c r="L13" s="43" t="str">
+        <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="54" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="59"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
@@ -2175,16 +2189,16 @@
         <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
         <v/>
       </c>
-      <c r="E14" s="53" t="str">
+      <c r="E14" s="57" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="43" t="str">
-        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+        <f>IF(LEN(データ設定用!T10)&gt;0,データ設定用!T10,"")</f>
         <v/>
       </c>
       <c r="J14" s="44" t="str">
@@ -2195,15 +2209,15 @@
         <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="59" t="str">
+      <c r="L14" s="43" t="str">
+        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="54" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="59"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
@@ -2224,16 +2238,16 @@
         <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
         <v/>
       </c>
-      <c r="E15" s="53" t="str">
+      <c r="E15" s="57" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="43" t="str">
-        <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
+        <f>IF(LEN(データ設定用!T11)&gt;0,データ設定用!T11,"")</f>
         <v/>
       </c>
       <c r="J15" s="44" t="str">
@@ -2244,15 +2258,15 @@
         <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
         <v/>
       </c>
-      <c r="L15" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M15" s="59" t="str">
+      <c r="L15" s="43" t="str">
+        <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="54" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="59"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
@@ -2275,8 +2289,8 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
@@ -2288,14 +2302,14 @@
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1">
       <c r="A17" s="28"/>
-      <c r="C17" s="60" t="str">
+      <c r="C17" s="51" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="62"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="40" t="s">
         <v>119</v>
       </c>
@@ -2303,18 +2317,18 @@
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="53">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="63"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="65">
+      <c r="L17" s="50"/>
+      <c r="M17" s="56">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="65"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
@@ -2326,21 +2340,21 @@
     </row>
     <row r="18" spans="1:22" ht="13.35" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="62"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="29"/>
       <c r="H18" s="42" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
@@ -2352,17 +2366,17 @@
     </row>
     <row r="19" spans="1:22" ht="13.35" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="62"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="29"/>
       <c r="H19" s="42" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -2378,17 +2392,17 @@
     </row>
     <row r="20" spans="1:22" ht="13.35" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="62"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="29"/>
       <c r="H20" s="42" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -2404,17 +2418,17 @@
     </row>
     <row r="21" spans="1:22" ht="13.35" customHeight="1">
       <c r="A21" s="28"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="62"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="29"/>
       <c r="H21" s="42" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -2430,17 +2444,17 @@
     </row>
     <row r="22" spans="1:22" ht="13.35" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="62"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="39"/>
       <c r="H22" s="42" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -2556,14 +2570,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2574,14 +2588,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.56000000000000005" right="1.24" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2995,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AM1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3304,6 +3318,9 @@
       <c r="S4" t="s">
         <v>77</v>
       </c>
+      <c r="T4" s="22" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
@@ -3359,6 +3376,9 @@
       </c>
       <c r="S5" t="s">
         <v>44</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:39">

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive_download.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive_download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBA5728-715D-4974-B72D-E1AFB1389A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AABF88-813A-4654-9CCE-B70ADCF58755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>KWGNo:</t>
     <phoneticPr fontId="1"/>
@@ -223,18 +223,6 @@
     <rPh sb="0" eb="4">
       <t>カブシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コレクターズチーム</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>TEL</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>FAX</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -972,12 +960,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TEL：03-3845-5925</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FAX：03-3845-1132</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>一個単価</t>
-    <rPh sb="0" eb="2">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンカ</t>
+    <rPh sb="0" eb="4">
+      <t>イッコタンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -990,7 +983,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
@@ -1204,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1232,9 +1226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1246,9 +1237,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1265,9 +1253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1284,15 +1269,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1303,6 +1279,37 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,11 +1319,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,9 +1341,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,11 +1355,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1361,6 +1371,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1730,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1748,260 +1759,260 @@
     <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="3.21875" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" customWidth="1"/>
     <col min="14" max="14" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="58">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="61">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:22" ht="12.6" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="61">
-        <f>データ設定用!H3</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="68" t="str">
+        <f>IF(LEN(データ設定用!H3)&gt;0,データ設定用!H3,"")</f>
+        <v/>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
     </row>
     <row r="6" spans="1:22" ht="35.85" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="65">
-        <f>データ設定用!P3</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="51" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="69" t="str">
+        <f>IF(LEN(データ設定用!P3)&gt;0,データ設定用!P3,"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
     </row>
     <row r="7" spans="1:22" ht="33.6" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="61">
-        <f>データ設定用!R3</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="68" t="str">
+        <f>IF(LEN(データ設定用!R3)&gt;0,データ設定用!R3,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="38" t="str">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="43" t="str">
         <f>IF(データ設定用!E6="","",データ設定用!E6)</f>
         <v/>
       </c>
-      <c r="D10" s="38" t="str">
+      <c r="D10" s="43" t="str">
         <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
         <v/>
       </c>
-      <c r="E10" s="57" t="str">
-        <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
+      <c r="E10" s="60" t="str">
+        <f>CONCATENATE(データ設定用!K6,CHAR(10),"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="43" t="str">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="48" t="str">
         <f>IF(LEN(データ設定用!T6)&gt;0,データ設定用!T6,"")</f>
         <v/>
       </c>
@@ -2009,48 +2020,48 @@
         <f>IF(LEN(データ設定用!N6)&gt;0,データ設定用!N6,"")</f>
         <v/>
       </c>
-      <c r="K10" s="44" t="str">
+      <c r="K10" s="47" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
         <v/>
       </c>
-      <c r="L10" s="43" t="str">
+      <c r="L10" s="48" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
       </c>
-      <c r="M10" s="54" t="str">
+      <c r="M10" s="57" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
     </row>
     <row r="11" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="38" t="str">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="43" t="str">
         <f>IF(データ設定用!E7="","",データ設定用!E7)</f>
         <v/>
       </c>
-      <c r="D11" s="38" t="str">
+      <c r="D11" s="43" t="str">
         <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
         <v/>
       </c>
-      <c r="E11" s="57" t="str">
-        <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
+      <c r="E11" s="60" t="str">
+        <f>CONCATENATE(データ設定用!K7,CHAR(10),"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="43" t="str">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="48" t="str">
         <f>IF(LEN(データ設定用!T7)&gt;0,データ設定用!T7,"")</f>
         <v/>
       </c>
@@ -2058,48 +2069,48 @@
         <f>IF(LEN(データ設定用!N7)&gt;0,データ設定用!N7,"")</f>
         <v/>
       </c>
-      <c r="K11" s="44" t="str">
+      <c r="K11" s="47" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
         <v/>
       </c>
-      <c r="L11" s="43" t="str">
+      <c r="L11" s="48" t="str">
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
       </c>
-      <c r="M11" s="54" t="str">
+      <c r="M11" s="57" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="38" t="str">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="43" t="str">
         <f>IF(データ設定用!E8="","",データ設定用!E8)</f>
         <v/>
       </c>
-      <c r="D12" s="38" t="str">
+      <c r="D12" s="43" t="str">
         <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
         <v/>
       </c>
-      <c r="E12" s="57" t="str">
-        <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
+      <c r="E12" s="60" t="str">
+        <f>CONCATENATE(データ設定用!K8,CHAR(10),"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="43" t="str">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="48" t="str">
         <f>IF(LEN(データ設定用!T8)&gt;0,データ設定用!T8,"")</f>
         <v/>
       </c>
@@ -2107,48 +2118,48 @@
         <f>IF(LEN(データ設定用!N8)&gt;0,データ設定用!N8,"")</f>
         <v/>
       </c>
-      <c r="K12" s="44" t="str">
+      <c r="K12" s="47" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
         <v/>
       </c>
-      <c r="L12" s="43" t="str">
+      <c r="L12" s="48" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
-      <c r="M12" s="54" t="str">
+      <c r="M12" s="57" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="38" t="str">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="43" t="str">
         <f>IF(データ設定用!E9="","",データ設定用!E9)</f>
         <v/>
       </c>
-      <c r="D13" s="38" t="str">
+      <c r="D13" s="43" t="str">
         <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
         <v/>
       </c>
-      <c r="E13" s="57" t="str">
-        <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
+      <c r="E13" s="60" t="str">
+        <f>CONCATENATE(データ設定用!K9,CHAR(10),"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="43" t="str">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="48" t="str">
         <f>IF(LEN(データ設定用!T9)&gt;0,データ設定用!T9,"")</f>
         <v/>
       </c>
@@ -2156,48 +2167,48 @@
         <f>IF(LEN(データ設定用!N9)&gt;0,データ設定用!N9,"")</f>
         <v/>
       </c>
-      <c r="K13" s="44" t="str">
+      <c r="K13" s="47" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
         <v/>
       </c>
-      <c r="L13" s="43" t="str">
+      <c r="L13" s="48" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
-      <c r="M13" s="54" t="str">
+      <c r="M13" s="57" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="38" t="str">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="43" t="str">
         <f>IF(データ設定用!E10="","",データ設定用!E10)</f>
         <v/>
       </c>
-      <c r="D14" s="38" t="str">
+      <c r="D14" s="43" t="str">
         <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
         <v/>
       </c>
-      <c r="E14" s="57" t="str">
-        <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
+      <c r="E14" s="60" t="str">
+        <f>CONCATENATE(データ設定用!K10,CHAR(10),"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="43" t="str">
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="48" t="str">
         <f>IF(LEN(データ設定用!T10)&gt;0,データ設定用!T10,"")</f>
         <v/>
       </c>
@@ -2205,48 +2216,48 @@
         <f>IF(LEN(データ設定用!N10)&gt;0,データ設定用!N10,"")</f>
         <v/>
       </c>
-      <c r="K14" s="44" t="str">
+      <c r="K14" s="47" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="43" t="str">
+      <c r="L14" s="48" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
-      <c r="M14" s="54" t="str">
+      <c r="M14" s="57" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="38" t="str">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="43" t="str">
         <f>IF(データ設定用!E11="","",データ設定用!E11)</f>
         <v/>
       </c>
-      <c r="D15" s="38" t="str">
+      <c r="D15" s="43" t="str">
         <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
         <v/>
       </c>
-      <c r="E15" s="57" t="str">
-        <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
+      <c r="E15" s="60" t="str">
+        <f>CONCATENATE(データ設定用!K11,CHAR(10),"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="43" t="str">
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="48" t="str">
         <f>IF(LEN(データ設定用!T11)&gt;0,データ設定用!T11,"")</f>
         <v/>
       </c>
@@ -2254,319 +2265,319 @@
         <f>IF(LEN(データ設定用!N11)&gt;0,データ設定用!N11,"")</f>
         <v/>
       </c>
-      <c r="K15" s="44" t="str">
+      <c r="K15" s="47" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
         <v/>
       </c>
-      <c r="L15" s="43" t="str">
+      <c r="L15" s="48" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
-      <c r="M15" s="54" t="str">
+      <c r="M15" s="57" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="C17" s="51" t="str">
-        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
+      <c r="A17" s="24"/>
+      <c r="C17" s="54" t="str">
+        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"不課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="41" t="str">
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="36" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="56">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="56">
+      <c r="J17" s="56"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="59">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="42" t="str">
+      <c r="A18" s="24"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="37" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="42" t="str">
+      <c r="A19" s="24"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="37" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="42" t="str">
+      <c r="A20" s="24"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="37" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
     </row>
     <row r="21" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="42" t="str">
+      <c r="A21" s="24"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="37" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="42" t="str">
+      <c r="A22" s="24"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="37" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="46" t="s">
+      <c r="A23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="47" t="str">
+      <c r="H23" s="39" t="str">
         <f>IF(LEN(データ設定用!D3)&gt;0,TEXT(データ設定用!D3,"0"),"")</f>
         <v/>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2599,7 +2610,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.56000000000000005" right="1.24" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="211" scale="55" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="232" scale="68" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2608,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2618,40 +2629,40 @@
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.6" customHeight="1">
-      <c r="B2" s="69" t="str">
-        <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
-        <v>　　様</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
+      <c r="B2" s="73" t="str">
+        <f>IF(データ設定用!G3&lt;&gt;0,CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様"),"")</f>
+        <v/>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="69" t="str">
-        <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
-        <v>　様</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="B3" s="73" t="str">
+        <f>IF(データ設定用!S3&lt;&gt;0,CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様"),"")</f>
+        <v/>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="3"/>
@@ -2664,12 +2675,12 @@
     <row r="5" spans="1:11" ht="30.6" customHeight="1" thickBot="1">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="20.85" customHeight="1">
       <c r="D7" s="5" t="s">
@@ -2685,12 +2696,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="71">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="11.1" customHeight="1">
       <c r="D10" s="7"/>
@@ -2731,32 +2742,32 @@
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="45" t="str">
         <f>IF(LEN(納品書!C10)&gt;0,納品書!C10,"")</f>
         <v/>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="46" t="str">
         <f>IF(LEN(納品書!D10)&gt;0,納品書!D10,"")</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="46" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="52" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="46" t="str">
         <f>IF(LEN(データ設定用!Q6)&gt;0,データ設定用!Q6,"")</f>
         <v/>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="25" t="str">
+      <c r="G12" s="46"/>
+      <c r="H12" s="49" t="str">
         <f>IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="50" t="str">
         <f>IF(LEN(D12)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2767,32 +2778,32 @@
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="45" t="str">
         <f>IF(LEN(納品書!C11)&gt;0,納品書!C11,"")</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="46" t="str">
         <f>IF(LEN(納品書!D11)&gt;0,納品書!D11,"")</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="46" t="str">
         <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="52" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="46" t="str">
         <f>IF(LEN(データ設定用!Q7)&gt;0,データ設定用!Q7,"")</f>
         <v/>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="25" t="str">
+      <c r="G13" s="46"/>
+      <c r="H13" s="49" t="str">
         <f>IF(LEN(データ設定用!G7)&gt;0,CONCATENATE(データ設定用!G7,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I13" s="17" t="str">
+      <c r="I13" s="50" t="str">
         <f>IF(LEN(D13)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2803,32 +2814,32 @@
       <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="45" t="str">
         <f>IF(LEN(納品書!C12)&gt;0,納品書!C12,"")</f>
         <v/>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="46" t="str">
         <f>IF(LEN(納品書!D12)&gt;0,納品書!D12,"")</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="46" t="str">
         <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="52" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="46" t="str">
         <f>IF(LEN(データ設定用!Q8)&gt;0,データ設定用!Q8,"")</f>
         <v/>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="25" t="str">
+      <c r="G14" s="46"/>
+      <c r="H14" s="49" t="str">
         <f>IF(LEN(データ設定用!G8)&gt;0,CONCATENATE(データ設定用!G8,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I14" s="50" t="str">
         <f>IF(LEN(D14)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2839,32 +2850,32 @@
       <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="45" t="str">
         <f>IF(LEN(納品書!C13)&gt;0,納品書!C13,"")</f>
         <v/>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="46" t="str">
         <f>IF(LEN(納品書!D13)&gt;0,納品書!D13,"")</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="46" t="str">
         <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="52" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="46" t="str">
         <f>IF(LEN(データ設定用!Q9)&gt;0,データ設定用!Q9,"")</f>
         <v/>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="25" t="str">
+      <c r="G15" s="46"/>
+      <c r="H15" s="49" t="str">
         <f>IF(LEN(データ設定用!G9)&gt;0,CONCATENATE(データ設定用!G9,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I15" s="17" t="str">
+      <c r="I15" s="50" t="str">
         <f>IF(LEN(D15)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2875,32 +2886,32 @@
       <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="45" t="str">
         <f>IF(LEN(納品書!C14)&gt;0,納品書!C14,"")</f>
         <v/>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="46" t="str">
         <f>IF(LEN(納品書!D14)&gt;0,納品書!D14,"")</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="46" t="str">
         <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="52" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="46" t="str">
         <f>IF(LEN(データ設定用!Q10)&gt;0,データ設定用!Q10,"")</f>
         <v/>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="25" t="str">
+      <c r="G16" s="46"/>
+      <c r="H16" s="49" t="str">
         <f>IF(LEN(データ設定用!G10)&gt;0,CONCATENATE(データ設定用!G10,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I16" s="17" t="str">
+      <c r="I16" s="50" t="str">
         <f>IF(LEN(D16)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2911,32 +2922,32 @@
       <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="45" t="str">
         <f>IF(LEN(納品書!C15)&gt;0,納品書!C15,"")</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="46" t="str">
         <f>IF(LEN(納品書!D15)&gt;0,納品書!D15,"")</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="46" t="str">
         <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="52" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="46" t="str">
         <f>IF(LEN(データ設定用!Q11)&gt;0,データ設定用!Q11,"")</f>
         <v/>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="25" t="str">
+      <c r="G17" s="46"/>
+      <c r="H17" s="49" t="str">
         <f>IF(LEN(データ設定用!G11)&gt;0,CONCATENATE(データ設定用!G11,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I17" s="17" t="str">
+      <c r="I17" s="50" t="str">
         <f>IF(LEN(D17)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2945,63 +2956,62 @@
     </row>
     <row r="18" spans="1:11" ht="14.1" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="19" t="s">
+      <c r="J19" s="74"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="G22" s="20"/>
-      <c r="H22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <f>納品書!I17</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3009,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3051,389 +3061,399 @@
   <sheetData>
     <row r="1" spans="1:39" ht="26.4">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG1" s="19"/>
+      <c r="AI1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AI1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM1" s="49" t="s">
-        <v>122</v>
+      <c r="AL1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM1" s="41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="P3" s="23"/>
-      <c r="AF3" s="24"/>
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="S3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="AF3" s="21"/>
     </row>
     <row r="4" spans="1:39">
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>123</v>
+      <c r="T4" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>55</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" t="s">
-        <v>59</v>
-      </c>
       <c r="S5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>124</v>
+        <v>41</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="M6" s="23"/>
+      <c r="O6" s="51"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="M7" s="23"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="M8" s="23"/>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="22" t="s">
+      <c r="E9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="M9" s="23"/>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="22" t="s">
+      <c r="E10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="M10" s="23"/>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="A11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="M11" s="27"/>
+      <c r="E11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="M11" s="23"/>
+      <c r="T11" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive_download.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive_download.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AABF88-813A-4654-9CCE-B70ADCF58755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E1F81-FE9E-4DCD-A4F6-95A11AF9399A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
   <si>
     <t>KWGNo:</t>
     <phoneticPr fontId="1"/>
@@ -977,6 +977,22 @@
   <si>
     <t>stroneproductprice</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書備考出力フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bytprintslipnoteflg</t>
   </si>
 </sst>
 </file>
@@ -1741,9 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2314,7 +2328,7 @@
     <row r="17" spans="1:22" ht="12" customHeight="1">
       <c r="A17" s="24"/>
       <c r="C17" s="54" t="str">
-        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"不課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
+        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,IF(データ設定用!U6=1,CONCATENATE(データ設定用!G6,"分　"), ""),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"不課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
@@ -3019,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3334,6 +3348,9 @@
       <c r="T4" s="19" t="s">
         <v>122</v>
       </c>
+      <c r="U4" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
@@ -3392,6 +3409,9 @@
       </c>
       <c r="T5" s="19" t="s">
         <v>123</v>
+      </c>
+      <c r="U5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:39">
